--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Ephb2.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H2">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I2">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J2">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N2">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O2">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P2">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q2">
-        <v>0.09706551551288888</v>
+        <v>0.06738847094422222</v>
       </c>
       <c r="R2">
-        <v>0.8735896396159999</v>
+        <v>0.6064962384979999</v>
       </c>
       <c r="S2">
-        <v>0.004177171671055308</v>
+        <v>0.003222102179922753</v>
       </c>
       <c r="T2">
-        <v>0.00417717167105531</v>
+        <v>0.003222102179922753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H3">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I3">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J3">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.337258</v>
       </c>
       <c r="O3">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P3">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q3">
-        <v>3.566832788193778</v>
+        <v>2.726066555979778</v>
       </c>
       <c r="R3">
-        <v>32.101495093744</v>
+        <v>24.534599003818</v>
       </c>
       <c r="S3">
-        <v>0.1534970766858582</v>
+        <v>0.1303437349084124</v>
       </c>
       <c r="T3">
-        <v>0.1534970766858583</v>
+        <v>0.1303437349084124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H4">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I4">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J4">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N4">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O4">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P4">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q4">
-        <v>0.01782595821155556</v>
+        <v>0.01894982678755556</v>
       </c>
       <c r="R4">
-        <v>0.160433623904</v>
+        <v>0.170548441088</v>
       </c>
       <c r="S4">
-        <v>0.0007671322534812907</v>
+        <v>0.0009060641582427294</v>
       </c>
       <c r="T4">
-        <v>0.0007671322534812909</v>
+        <v>0.0009060641582427294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H5">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I5">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J5">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N5">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O5">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P5">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q5">
-        <v>0.2113216751724444</v>
+        <v>0.1482884627575556</v>
       </c>
       <c r="R5">
-        <v>1.901895076552</v>
+        <v>1.334596164818</v>
       </c>
       <c r="S5">
-        <v>0.009094135134872625</v>
+        <v>0.007090242179615438</v>
       </c>
       <c r="T5">
-        <v>0.00909413513487263</v>
+        <v>0.007090242179615438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H6">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I6">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J6">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N6">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O6">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P6">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q6">
-        <v>0.00277029591911111</v>
+        <v>0.0009893012883333333</v>
       </c>
       <c r="R6">
-        <v>0.024932663272</v>
+        <v>0.008903711595000001</v>
       </c>
       <c r="S6">
-        <v>0.0001192184636593669</v>
+        <v>4.730230250182763E-05</v>
       </c>
       <c r="T6">
-        <v>0.000119218463659367</v>
+        <v>4.730230250182764E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.624959</v>
       </c>
       <c r="I7">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J7">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N7">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O7">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P7">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q7">
-        <v>0.4309418588897778</v>
+        <v>0.3914583966824444</v>
       </c>
       <c r="R7">
-        <v>3.878476730008</v>
+        <v>3.523125570142</v>
       </c>
       <c r="S7">
-        <v>0.01854539292677289</v>
+        <v>0.01871713270276707</v>
       </c>
       <c r="T7">
-        <v>0.0185453929267729</v>
+        <v>0.01871713270276707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.624959</v>
       </c>
       <c r="I8">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J8">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.337258</v>
       </c>
       <c r="O8">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P8">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q8">
         <v>15.83567082471356</v>
@@ -948,10 +948,10 @@
         <v>142.521037422422</v>
       </c>
       <c r="S8">
-        <v>0.6814811131597708</v>
+        <v>0.7571643750023894</v>
       </c>
       <c r="T8">
-        <v>0.6814811131597711</v>
+        <v>0.7571643750023895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.624959</v>
       </c>
       <c r="I9">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J9">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N9">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O9">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P9">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q9">
-        <v>0.07914192313911113</v>
+        <v>0.1100791976391111</v>
       </c>
       <c r="R9">
-        <v>0.7122773082520002</v>
+        <v>0.9907127787520001</v>
       </c>
       <c r="S9">
-        <v>0.003405837774442502</v>
+        <v>0.005263310143521482</v>
       </c>
       <c r="T9">
-        <v>0.003405837774442503</v>
+        <v>0.005263310143521483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.624959</v>
       </c>
       <c r="I10">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J10">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N10">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O10">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P10">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q10">
-        <v>0.9382050364778889</v>
+        <v>0.8614049712691112</v>
       </c>
       <c r="R10">
-        <v>8.443845328301</v>
+        <v>7.752644741422</v>
       </c>
       <c r="S10">
-        <v>0.04037524015927631</v>
+        <v>0.04118708729895094</v>
       </c>
       <c r="T10">
-        <v>0.04037524015927633</v>
+        <v>0.04118708729895095</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.624959</v>
       </c>
       <c r="I11">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J11">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N11">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O11">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P11">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q11">
-        <v>0.01229928535122222</v>
+        <v>0.005746833111666667</v>
       </c>
       <c r="R11">
-        <v>0.110693568161</v>
+        <v>0.05172149800500001</v>
       </c>
       <c r="S11">
-        <v>0.000529294323240152</v>
+        <v>0.0002747782111287247</v>
       </c>
       <c r="T11">
-        <v>0.0005292943232401522</v>
+        <v>0.0002747782111287248</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H12">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I12">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J12">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N12">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O12">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P12">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q12">
-        <v>0.05095340455111111</v>
+        <v>0.01702866876466666</v>
       </c>
       <c r="R12">
-        <v>0.45858064096</v>
+        <v>0.153258018882</v>
       </c>
       <c r="S12">
-        <v>0.00219275730325112</v>
+        <v>0.0008142061984642681</v>
       </c>
       <c r="T12">
-        <v>0.00219275730325112</v>
+        <v>0.0008142061984642681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H13">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I13">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J13">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.337258</v>
       </c>
       <c r="O13">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P13">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q13">
-        <v>1.872367061182222</v>
+        <v>0.6888609247513333</v>
       </c>
       <c r="R13">
-        <v>16.85130355064</v>
+        <v>6.199748322762</v>
       </c>
       <c r="S13">
-        <v>0.08057649108914401</v>
+        <v>0.03293709229791002</v>
       </c>
       <c r="T13">
-        <v>0.08057649108914404</v>
+        <v>0.03293709229791002</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H14">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I14">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J14">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N14">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O14">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P14">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q14">
-        <v>0.009357527804444446</v>
+        <v>0.004788509354666667</v>
       </c>
       <c r="R14">
-        <v>0.08421775024000001</v>
+        <v>0.043096584192</v>
       </c>
       <c r="S14">
-        <v>0.0004026970840189625</v>
+        <v>0.0002289570636351533</v>
       </c>
       <c r="T14">
-        <v>0.0004026970840189626</v>
+        <v>0.0002289570636351533</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H15">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I15">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J15">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N15">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O15">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P15">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q15">
-        <v>0.1109308362355556</v>
+        <v>0.03747161908466667</v>
       </c>
       <c r="R15">
-        <v>0.99837752612</v>
+        <v>0.337244571762</v>
       </c>
       <c r="S15">
-        <v>0.004773859636155836</v>
+        <v>0.001791662339955368</v>
       </c>
       <c r="T15">
-        <v>0.004773859636155837</v>
+        <v>0.001791662339955368</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H16">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I16">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J16">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N16">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O16">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P16">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q16">
-        <v>0.001454234368888889</v>
+        <v>0.000249990595</v>
       </c>
       <c r="R16">
-        <v>0.01308810932</v>
+        <v>0.002249915355</v>
       </c>
       <c r="S16">
-        <v>6.258233500023028E-05</v>
+        <v>1.195301258246976E-05</v>
       </c>
       <c r="T16">
-        <v>6.258233500023031E-05</v>
+        <v>1.195301258246976E-05</v>
       </c>
     </row>
   </sheetData>
